--- a/source/FF_place.xlsx
+++ b/source/FF_place.xlsx
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
+  <si>
+    <t>6FF</t>
+  </si>
+  <si>
+    <t>First 3FF</t>
+  </si>
+  <si>
+    <t>Second 3FF</t>
+  </si>
+  <si>
+    <t>3+3 F/F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="R196" sqref="R196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,7 +377,7 @@
     <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>121.9</v>
       </c>
@@ -378,8 +395,22 @@
       <c r="E1">
         <v>495</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>165.085+0.14+20</f>
+        <v>185.22499999999999</v>
+      </c>
+      <c r="M1">
+        <f>165.085+0.14+20</f>
+        <v>185.22499999999999</v>
+      </c>
+      <c r="O1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>D1+80</f>
         <v>261.89999999999998</v>
@@ -387,8 +418,22 @@
       <c r="E2">
         <v>495</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>247.405+0.14+20</f>
+        <v>267.54499999999996</v>
+      </c>
+      <c r="M2">
+        <f>247.405+0.14+20</f>
+        <v>267.54499999999996</v>
+      </c>
+      <c r="O2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">D2+80</f>
         <v>341.9</v>
@@ -396,8 +441,22 @@
       <c r="E3">
         <v>495</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>312.925+0.14+20</f>
+        <v>333.065</v>
+      </c>
+      <c r="M3">
+        <f>312.925+0.14+20</f>
+        <v>333.065</v>
+      </c>
+      <c r="O3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4">
         <f t="shared" si="0"/>
         <v>421.9</v>
@@ -405,8 +464,36 @@
       <c r="E4">
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>393.425+20</f>
+        <v>413.42500000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>421.705+20</f>
+        <v>441.70499999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f>393.425+20</f>
+        <v>413.42500000000001</v>
+      </c>
+      <c r="N4">
+        <f>421.705+20</f>
+        <v>441.70499999999998</v>
+      </c>
+      <c r="O4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5">
         <f t="shared" si="0"/>
         <v>501.9</v>
@@ -414,8 +501,22 @@
       <c r="E5">
         <v>495</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>498.845+0.14+20</f>
+        <v>518.98500000000001</v>
+      </c>
+      <c r="M5">
+        <f>498.845+0.14+20</f>
+        <v>518.98500000000001</v>
+      </c>
+      <c r="O5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>581.9</v>
@@ -423,8 +524,22 @@
       <c r="E6">
         <v>495</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>568.845+0.14+20</f>
+        <v>588.98500000000001</v>
+      </c>
+      <c r="M6">
+        <f>568.845+0.14+20</f>
+        <v>588.98500000000001</v>
+      </c>
+      <c r="O6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>661.9</v>
@@ -432,8 +547,22 @@
       <c r="E7">
         <v>495</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>645.565+0.14+20</f>
+        <v>665.70500000000004</v>
+      </c>
+      <c r="M7">
+        <f>645.565+0.14+20</f>
+        <v>665.70500000000004</v>
+      </c>
+      <c r="O7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>741.9</v>
@@ -441,8 +570,15 @@
       <c r="E8">
         <v>495</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>M1+560</f>
+        <v>745.22500000000002</v>
+      </c>
+      <c r="O8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>821.9</v>
@@ -450,8 +586,15 @@
       <c r="E9">
         <v>495</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" ref="M9:M72" si="1">M2+560</f>
+        <v>827.54499999999996</v>
+      </c>
+      <c r="O9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>901.9</v>
@@ -459,8 +602,15 @@
       <c r="E10">
         <v>495</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>893.06500000000005</v>
+      </c>
+      <c r="O10">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>981.9</v>
@@ -468,8 +618,22 @@
       <c r="E11">
         <v>495</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>973.42499999999995</v>
+      </c>
+      <c r="N11">
+        <f>M11+28.28</f>
+        <v>1001.7049999999999</v>
+      </c>
+      <c r="O11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>1061.9000000000001</v>
@@ -477,8 +641,15 @@
       <c r="E12">
         <v>495</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1078.9850000000001</v>
+      </c>
+      <c r="O12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1141.9000000000001</v>
@@ -486,8 +657,15 @@
       <c r="E13">
         <v>495</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1148.9850000000001</v>
+      </c>
+      <c r="O13">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1221.9000000000001</v>
@@ -495,8 +673,15 @@
       <c r="E14">
         <v>495</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1225.7049999999999</v>
+      </c>
+      <c r="O14">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>1301.9000000000001</v>
@@ -504,8 +689,15 @@
       <c r="E15">
         <v>495</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1305.2249999999999</v>
+      </c>
+      <c r="O15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>1381.9</v>
@@ -513,8 +705,15 @@
       <c r="E16">
         <v>495</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1387.5450000000001</v>
+      </c>
+      <c r="O16">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>1461.9</v>
@@ -522,8 +721,15 @@
       <c r="E17">
         <v>495</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1453.0650000000001</v>
+      </c>
+      <c r="O17">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>1541.9</v>
@@ -531,8 +737,22 @@
       <c r="E18">
         <v>495</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1533.425</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18" si="2">M18+28.28</f>
+        <v>1561.7049999999999</v>
+      </c>
+      <c r="O18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>1621.9</v>
@@ -540,8 +760,15 @@
       <c r="E19">
         <v>495</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1638.9850000000001</v>
+      </c>
+      <c r="O19">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>1701.9</v>
@@ -549,8 +776,15 @@
       <c r="E20">
         <v>495</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>1708.9850000000001</v>
+      </c>
+      <c r="O20">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>1781.9</v>
@@ -558,8 +792,15 @@
       <c r="E21">
         <v>495</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1785.7049999999999</v>
+      </c>
+      <c r="O21">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>1861.9</v>
@@ -567,8 +808,15 @@
       <c r="E22">
         <v>495</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1865.2249999999999</v>
+      </c>
+      <c r="O22">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>1941.9</v>
@@ -576,8 +824,15 @@
       <c r="E23">
         <v>495</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1947.5450000000001</v>
+      </c>
+      <c r="O23">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>2021.9</v>
@@ -585,8 +840,15 @@
       <c r="E24">
         <v>495</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>2013.0650000000001</v>
+      </c>
+      <c r="O24">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>2101.9</v>
@@ -594,8 +856,22 @@
       <c r="E25">
         <v>495</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2093.4250000000002</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25" si="3">M25+28.28</f>
+        <v>2121.7050000000004</v>
+      </c>
+      <c r="O25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>2181.9</v>
@@ -603,8 +879,15 @@
       <c r="E26">
         <v>495</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>2198.9850000000001</v>
+      </c>
+      <c r="O26">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>2261.9</v>
@@ -612,8 +895,15 @@
       <c r="E27">
         <v>495</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>2268.9850000000001</v>
+      </c>
+      <c r="O27">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>2341.9</v>
@@ -621,8 +911,15 @@
       <c r="E28">
         <v>495</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>2345.7049999999999</v>
+      </c>
+      <c r="O28">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>2421.9</v>
@@ -630,8 +927,15 @@
       <c r="E29">
         <v>495</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>2425.2249999999999</v>
+      </c>
+      <c r="O29">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>2501.9</v>
@@ -639,8 +943,15 @@
       <c r="E30">
         <v>495</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>2507.5450000000001</v>
+      </c>
+      <c r="O30">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>2581.9</v>
@@ -648,8 +959,15 @@
       <c r="E31">
         <v>495</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>2573.0650000000001</v>
+      </c>
+      <c r="O31">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>2661.9</v>
@@ -657,8 +975,22 @@
       <c r="E32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>2653.4250000000002</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32" si="4">M32+28.28</f>
+        <v>2681.7050000000004</v>
+      </c>
+      <c r="O32">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>2741.9</v>
@@ -666,8 +998,15 @@
       <c r="E33">
         <v>495</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>2758.9850000000001</v>
+      </c>
+      <c r="O33">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>2821.9</v>
@@ -675,8 +1014,15 @@
       <c r="E34">
         <v>495</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>2828.9850000000001</v>
+      </c>
+      <c r="O34">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>2901.9</v>
@@ -684,8 +1030,15 @@
       <c r="E35">
         <v>495</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>2905.7049999999999</v>
+      </c>
+      <c r="O35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>2981.9</v>
@@ -693,8 +1046,15 @@
       <c r="E36">
         <v>495</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>2985.2249999999999</v>
+      </c>
+      <c r="O36">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>3061.9</v>
@@ -702,8 +1062,15 @@
       <c r="E37">
         <v>495</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>3067.5450000000001</v>
+      </c>
+      <c r="O37">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>3141.9</v>
@@ -711,8 +1078,15 @@
       <c r="E38">
         <v>495</v>
       </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>3133.0650000000001</v>
+      </c>
+      <c r="O38">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>3221.9</v>
@@ -720,8 +1094,22 @@
       <c r="E39">
         <v>495</v>
       </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>3213.4250000000002</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="5">M39+28.28</f>
+        <v>3241.7050000000004</v>
+      </c>
+      <c r="O39">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>3301.9</v>
@@ -729,8 +1117,15 @@
       <c r="E40">
         <v>495</v>
       </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>3318.9850000000001</v>
+      </c>
+      <c r="O40">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>3381.9</v>
@@ -738,8 +1133,15 @@
       <c r="E41">
         <v>495</v>
       </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>3388.9850000000001</v>
+      </c>
+      <c r="O41">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>3461.9</v>
@@ -747,8 +1149,15 @@
       <c r="E42">
         <v>495</v>
       </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>3465.7049999999999</v>
+      </c>
+      <c r="O42">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>3541.9</v>
@@ -756,8 +1165,15 @@
       <c r="E43">
         <v>495</v>
       </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>3545.2249999999999</v>
+      </c>
+      <c r="O43">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>3621.9</v>
@@ -765,8 +1181,15 @@
       <c r="E44">
         <v>495</v>
       </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>3627.5450000000001</v>
+      </c>
+      <c r="O44">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>3701.9</v>
@@ -774,8 +1197,15 @@
       <c r="E45">
         <v>495</v>
       </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>3693.0650000000001</v>
+      </c>
+      <c r="O45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>3781.9</v>
@@ -783,8 +1213,22 @@
       <c r="E46">
         <v>495</v>
       </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>3773.4250000000002</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46" si="6">M46+28.28</f>
+        <v>3801.7050000000004</v>
+      </c>
+      <c r="O46">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>3861.9</v>
@@ -792,8 +1236,15 @@
       <c r="E47">
         <v>495</v>
       </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>3878.9850000000001</v>
+      </c>
+      <c r="O47">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>3941.9</v>
@@ -801,8 +1252,15 @@
       <c r="E48">
         <v>495</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>3948.9850000000001</v>
+      </c>
+      <c r="O48">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>4021.9</v>
@@ -810,8 +1268,15 @@
       <c r="E49">
         <v>495</v>
       </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>4025.7049999999999</v>
+      </c>
+      <c r="O49">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>4101.8999999999996</v>
@@ -819,8 +1284,15 @@
       <c r="E50">
         <v>495</v>
       </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>4105.2250000000004</v>
+      </c>
+      <c r="O50">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>4181.8999999999996</v>
@@ -828,8 +1300,15 @@
       <c r="E51">
         <v>495</v>
       </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>4187.5450000000001</v>
+      </c>
+      <c r="O51">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>4261.8999999999996</v>
@@ -837,8 +1316,15 @@
       <c r="E52">
         <v>495</v>
       </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>4253.0650000000005</v>
+      </c>
+      <c r="O52">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>4341.8999999999996</v>
@@ -846,8 +1332,22 @@
       <c r="E53">
         <v>495</v>
       </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>4333.4250000000002</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53" si="7">M53+28.28</f>
+        <v>4361.7049999999999</v>
+      </c>
+      <c r="O53">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>4421.8999999999996</v>
@@ -855,8 +1355,15 @@
       <c r="E54">
         <v>495</v>
       </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>4438.9850000000006</v>
+      </c>
+      <c r="O54">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>4501.8999999999996</v>
@@ -864,8 +1371,15 @@
       <c r="E55">
         <v>495</v>
       </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>4508.9850000000006</v>
+      </c>
+      <c r="O55">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>4581.8999999999996</v>
@@ -873,8 +1387,15 @@
       <c r="E56">
         <v>495</v>
       </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>4585.7049999999999</v>
+      </c>
+      <c r="O56">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>4661.8999999999996</v>
@@ -882,8 +1403,15 @@
       <c r="E57">
         <v>495</v>
       </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>4665.2250000000004</v>
+      </c>
+      <c r="O57">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>4741.8999999999996</v>
@@ -891,8 +1419,15 @@
       <c r="E58">
         <v>495</v>
       </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>4747.5450000000001</v>
+      </c>
+      <c r="O58">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>4821.8999999999996</v>
@@ -900,8 +1435,15 @@
       <c r="E59">
         <v>495</v>
       </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>4813.0650000000005</v>
+      </c>
+      <c r="O59">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>4901.8999999999996</v>
@@ -909,8 +1451,22 @@
       <c r="E60">
         <v>495</v>
       </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>4893.4250000000002</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60" si="8">M60+28.28</f>
+        <v>4921.7049999999999</v>
+      </c>
+      <c r="O60">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>4981.8999999999996</v>
@@ -918,8 +1474,15 @@
       <c r="E61">
         <v>495</v>
       </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>4998.9850000000006</v>
+      </c>
+      <c r="O61">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>5061.8999999999996</v>
@@ -927,8 +1490,15 @@
       <c r="E62">
         <v>495</v>
       </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>5068.9850000000006</v>
+      </c>
+      <c r="O62">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>5141.8999999999996</v>
@@ -936,8 +1506,15 @@
       <c r="E63">
         <v>495</v>
       </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>5145.7049999999999</v>
+      </c>
+      <c r="O63">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>5221.8999999999996</v>
@@ -945,8 +1522,15 @@
       <c r="E64">
         <v>495</v>
       </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>5225.2250000000004</v>
+      </c>
+      <c r="O64">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D65">
         <f t="shared" si="0"/>
         <v>5301.9</v>
@@ -954,8 +1538,15 @@
       <c r="E65">
         <v>495</v>
       </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>5307.5450000000001</v>
+      </c>
+      <c r="O65">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D66">
         <f t="shared" si="0"/>
         <v>5381.9</v>
@@ -963,1426 +1554,2700 @@
       <c r="E66">
         <v>495</v>
       </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>5373.0650000000005</v>
+      </c>
+      <c r="O66">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">D66+80</f>
+        <f t="shared" ref="D67:D130" si="9">D66+80</f>
         <v>5461.9</v>
       </c>
       <c r="E67">
         <v>495</v>
       </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="1"/>
+        <v>5453.4250000000002</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67" si="10">M67+28.28</f>
+        <v>5481.7049999999999</v>
+      </c>
+      <c r="O67">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5541.9</v>
       </c>
       <c r="E68">
         <v>495</v>
       </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>5558.9850000000006</v>
+      </c>
+      <c r="O68">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5621.9</v>
       </c>
       <c r="E69">
         <v>495</v>
       </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>5628.9850000000006</v>
+      </c>
+      <c r="O69">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5701.9</v>
       </c>
       <c r="E70">
         <v>495</v>
       </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>5705.7049999999999</v>
+      </c>
+      <c r="O70">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5781.9</v>
       </c>
       <c r="E71">
         <v>495</v>
       </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>5785.2250000000004</v>
+      </c>
+      <c r="O71">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5861.9</v>
       </c>
       <c r="E72">
         <v>495</v>
       </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>5867.5450000000001</v>
+      </c>
+      <c r="O72">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5941.9</v>
       </c>
       <c r="E73">
         <v>495</v>
       </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" ref="M73:M136" si="11">M66+560</f>
+        <v>5933.0650000000005</v>
+      </c>
+      <c r="O73">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6021.9</v>
       </c>
       <c r="E74">
         <v>495</v>
       </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>6013.4250000000002</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74" si="12">M74+28.28</f>
+        <v>6041.7049999999999</v>
+      </c>
+      <c r="O74">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6101.9</v>
       </c>
       <c r="E75">
         <v>495</v>
       </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>6118.9850000000006</v>
+      </c>
+      <c r="O75">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6181.9</v>
       </c>
       <c r="E76">
         <v>495</v>
       </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>6188.9850000000006</v>
+      </c>
+      <c r="O76">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6261.9</v>
       </c>
       <c r="E77">
         <v>495</v>
       </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>6265.7049999999999</v>
+      </c>
+      <c r="O77">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6341.9</v>
       </c>
       <c r="E78">
         <v>495</v>
       </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>6345.2250000000004</v>
+      </c>
+      <c r="O78">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6421.9</v>
       </c>
       <c r="E79">
         <v>495</v>
       </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>6427.5450000000001</v>
+      </c>
+      <c r="O79">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6501.9</v>
       </c>
       <c r="E80">
         <v>495</v>
       </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>6493.0650000000005</v>
+      </c>
+      <c r="O80">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6581.9</v>
       </c>
       <c r="E81">
         <v>495</v>
       </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>6573.4250000000002</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81" si="13">M81+28.28</f>
+        <v>6601.7049999999999</v>
+      </c>
+      <c r="O81">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6661.9</v>
       </c>
       <c r="E82">
         <v>495</v>
       </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>6678.9850000000006</v>
+      </c>
+      <c r="O82">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6741.9</v>
       </c>
       <c r="E83">
         <v>495</v>
       </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>6748.9850000000006</v>
+      </c>
+      <c r="O83">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6821.9</v>
       </c>
       <c r="E84">
         <v>495</v>
       </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>6825.7049999999999</v>
+      </c>
+      <c r="O84">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6901.9</v>
       </c>
       <c r="E85">
         <v>495</v>
       </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>6905.2250000000004</v>
+      </c>
+      <c r="O85">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6981.9</v>
       </c>
       <c r="E86">
         <v>495</v>
       </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>6987.5450000000001</v>
+      </c>
+      <c r="O86">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7061.9</v>
       </c>
       <c r="E87">
         <v>495</v>
       </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>7053.0650000000005</v>
+      </c>
+      <c r="O87">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7141.9</v>
       </c>
       <c r="E88">
         <v>495</v>
       </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>7133.4250000000002</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88" si="14">M88+28.28</f>
+        <v>7161.7049999999999</v>
+      </c>
+      <c r="O88">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7221.9</v>
       </c>
       <c r="E89">
         <v>495</v>
       </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>7238.9850000000006</v>
+      </c>
+      <c r="O89">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7301.9</v>
       </c>
       <c r="E90">
         <v>495</v>
       </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>7308.9850000000006</v>
+      </c>
+      <c r="O90">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7381.9</v>
       </c>
       <c r="E91">
         <v>495</v>
       </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>7385.7049999999999</v>
+      </c>
+      <c r="O91">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7461.9</v>
       </c>
       <c r="E92">
         <v>495</v>
       </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>7465.2250000000004</v>
+      </c>
+      <c r="O92">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7541.9</v>
       </c>
       <c r="E93">
         <v>495</v>
       </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>7547.5450000000001</v>
+      </c>
+      <c r="O93">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7621.9</v>
       </c>
       <c r="E94">
         <v>495</v>
       </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>7613.0650000000005</v>
+      </c>
+      <c r="O94">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7701.9</v>
       </c>
       <c r="E95">
         <v>495</v>
       </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>7693.4250000000002</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ref="N95" si="15">M95+28.28</f>
+        <v>7721.7049999999999</v>
+      </c>
+      <c r="O95">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7781.9</v>
       </c>
       <c r="E96">
         <v>495</v>
       </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>7798.9850000000006</v>
+      </c>
+      <c r="O96">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7861.9</v>
       </c>
       <c r="E97">
         <v>495</v>
       </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>7868.9850000000006</v>
+      </c>
+      <c r="O97">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7941.9</v>
       </c>
       <c r="E98">
         <v>495</v>
       </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>7945.7049999999999</v>
+      </c>
+      <c r="O98">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8021.9</v>
       </c>
       <c r="E99">
         <v>495</v>
       </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>8025.2250000000004</v>
+      </c>
+      <c r="O99">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8101.9</v>
       </c>
       <c r="E100">
         <v>495</v>
       </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>8107.5450000000001</v>
+      </c>
+      <c r="O100">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8181.9</v>
       </c>
       <c r="E101">
         <v>495</v>
       </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>8173.0650000000005</v>
+      </c>
+      <c r="O101">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8261.9</v>
       </c>
       <c r="E102">
         <v>495</v>
       </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>8253.4249999999993</v>
+      </c>
+      <c r="N102">
+        <f t="shared" ref="N102" si="16">M102+28.28</f>
+        <v>8281.7049999999999</v>
+      </c>
+      <c r="O102">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8341.9</v>
       </c>
       <c r="E103">
         <v>495</v>
       </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>8358.9850000000006</v>
+      </c>
+      <c r="O103">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8421.9</v>
       </c>
       <c r="E104">
         <v>495</v>
       </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>8428.9850000000006</v>
+      </c>
+      <c r="O104">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8501.9</v>
       </c>
       <c r="E105">
         <v>495</v>
       </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>8505.7049999999999</v>
+      </c>
+      <c r="O105">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8581.9</v>
       </c>
       <c r="E106">
         <v>495</v>
       </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>8585.2250000000004</v>
+      </c>
+      <c r="O106">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8661.9</v>
       </c>
       <c r="E107">
         <v>495</v>
       </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>8667.5450000000001</v>
+      </c>
+      <c r="O107">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8741.9</v>
       </c>
       <c r="E108">
         <v>495</v>
       </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>8733.0650000000005</v>
+      </c>
+      <c r="O108">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8821.9</v>
       </c>
       <c r="E109">
         <v>495</v>
       </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>8813.4249999999993</v>
+      </c>
+      <c r="N109">
+        <f t="shared" ref="N109" si="17">M109+28.28</f>
+        <v>8841.7049999999999</v>
+      </c>
+      <c r="O109">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8901.9</v>
       </c>
       <c r="E110">
         <v>495</v>
       </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>8918.9850000000006</v>
+      </c>
+      <c r="O110">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8981.9</v>
       </c>
       <c r="E111">
         <v>495</v>
       </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>8988.9850000000006</v>
+      </c>
+      <c r="O111">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9061.9</v>
       </c>
       <c r="E112">
         <v>495</v>
       </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>9065.7049999999999</v>
+      </c>
+      <c r="O112">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9141.9</v>
       </c>
       <c r="E113">
         <v>495</v>
       </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>9145.2250000000004</v>
+      </c>
+      <c r="O113">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9221.9</v>
       </c>
       <c r="E114">
         <v>495</v>
       </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>9227.5450000000001</v>
+      </c>
+      <c r="O114">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9301.9</v>
       </c>
       <c r="E115">
         <v>495</v>
       </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>9293.0650000000005</v>
+      </c>
+      <c r="O115">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9381.9</v>
       </c>
       <c r="E116">
         <v>495</v>
       </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>9373.4249999999993</v>
+      </c>
+      <c r="N116">
+        <f t="shared" ref="N116" si="18">M116+28.28</f>
+        <v>9401.7049999999999</v>
+      </c>
+      <c r="O116">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9461.9</v>
       </c>
       <c r="E117">
         <v>495</v>
       </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>9478.9850000000006</v>
+      </c>
+      <c r="O117">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9541.9</v>
       </c>
       <c r="E118">
         <v>495</v>
       </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>9548.9850000000006</v>
+      </c>
+      <c r="O118">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9621.9</v>
       </c>
       <c r="E119">
         <v>495</v>
       </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <f t="shared" si="11"/>
+        <v>9625.7049999999999</v>
+      </c>
+      <c r="O119">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9701.9</v>
       </c>
       <c r="E120">
         <v>495</v>
       </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <f t="shared" si="11"/>
+        <v>9705.2250000000004</v>
+      </c>
+      <c r="O120">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9781.9</v>
       </c>
       <c r="E121">
         <v>495</v>
       </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <f t="shared" si="11"/>
+        <v>9787.5450000000001</v>
+      </c>
+      <c r="O121">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9861.9</v>
       </c>
       <c r="E122">
         <v>495</v>
       </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <f t="shared" si="11"/>
+        <v>9853.0650000000005</v>
+      </c>
+      <c r="O122">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9941.9</v>
       </c>
       <c r="E123">
         <v>495</v>
       </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="11"/>
+        <v>9933.4249999999993</v>
+      </c>
+      <c r="N123">
+        <f t="shared" ref="N123" si="19">M123+28.28</f>
+        <v>9961.7049999999999</v>
+      </c>
+      <c r="O123">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="124" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10021.9</v>
       </c>
       <c r="E124">
         <v>495</v>
       </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <f t="shared" si="11"/>
+        <v>10038.985000000001</v>
+      </c>
+      <c r="O124">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10101.9</v>
       </c>
       <c r="E125">
         <v>495</v>
       </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <f t="shared" si="11"/>
+        <v>10108.985000000001</v>
+      </c>
+      <c r="O125">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10181.9</v>
       </c>
       <c r="E126">
         <v>495</v>
       </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <f t="shared" si="11"/>
+        <v>10185.705</v>
+      </c>
+      <c r="O126">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10261.9</v>
       </c>
       <c r="E127">
         <v>495</v>
       </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <f t="shared" si="11"/>
+        <v>10265.225</v>
+      </c>
+      <c r="O127">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10341.9</v>
       </c>
       <c r="E128">
         <v>495</v>
       </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <f t="shared" si="11"/>
+        <v>10347.545</v>
+      </c>
+      <c r="O128">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10421.9</v>
       </c>
       <c r="E129">
         <v>495</v>
       </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <f t="shared" si="11"/>
+        <v>10413.065000000001</v>
+      </c>
+      <c r="O129">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10501.9</v>
       </c>
       <c r="E130">
         <v>495</v>
       </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L130" t="s">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="11"/>
+        <v>10493.424999999999</v>
+      </c>
+      <c r="N130">
+        <f t="shared" ref="N130" si="20">M130+28.28</f>
+        <v>10521.705</v>
+      </c>
+      <c r="O130">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">D130+80</f>
+        <f t="shared" ref="D131:D194" si="21">D130+80</f>
         <v>10581.9</v>
       </c>
       <c r="E131">
         <v>495</v>
       </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <f t="shared" si="11"/>
+        <v>10598.985000000001</v>
+      </c>
+      <c r="O131">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>10661.9</v>
       </c>
       <c r="E132">
         <v>495</v>
       </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <f t="shared" si="11"/>
+        <v>10668.985000000001</v>
+      </c>
+      <c r="O132">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>10741.9</v>
       </c>
       <c r="E133">
         <v>495</v>
       </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <f t="shared" si="11"/>
+        <v>10745.705</v>
+      </c>
+      <c r="O133">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="134" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>10821.9</v>
       </c>
       <c r="E134">
         <v>495</v>
       </c>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <f t="shared" si="11"/>
+        <v>10825.225</v>
+      </c>
+      <c r="O134">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>10901.9</v>
       </c>
       <c r="E135">
         <v>495</v>
       </c>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <f t="shared" si="11"/>
+        <v>10907.545</v>
+      </c>
+      <c r="O135">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>10981.9</v>
       </c>
       <c r="E136">
         <v>495</v>
       </c>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <f t="shared" si="11"/>
+        <v>10973.065000000001</v>
+      </c>
+      <c r="O136">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="137" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11061.9</v>
       </c>
       <c r="E137">
         <v>495</v>
       </c>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <f t="shared" ref="M137:M200" si="22">M130+560</f>
+        <v>11053.424999999999</v>
+      </c>
+      <c r="N137">
+        <f t="shared" ref="N137" si="23">M137+28.28</f>
+        <v>11081.705</v>
+      </c>
+      <c r="O137">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11141.9</v>
       </c>
       <c r="E138">
         <v>495</v>
       </c>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <f t="shared" si="22"/>
+        <v>11158.985000000001</v>
+      </c>
+      <c r="O138">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11221.9</v>
       </c>
       <c r="E139">
         <v>495</v>
       </c>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <f t="shared" si="22"/>
+        <v>11228.985000000001</v>
+      </c>
+      <c r="O139">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11301.9</v>
       </c>
       <c r="E140">
         <v>495</v>
       </c>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <f t="shared" si="22"/>
+        <v>11305.705</v>
+      </c>
+      <c r="O140">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="141" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11381.9</v>
       </c>
       <c r="E141">
         <v>495</v>
       </c>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <f t="shared" si="22"/>
+        <v>11385.225</v>
+      </c>
+      <c r="O141">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="142" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11461.9</v>
       </c>
       <c r="E142">
         <v>495</v>
       </c>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <f t="shared" si="22"/>
+        <v>11467.545</v>
+      </c>
+      <c r="O142">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11541.9</v>
       </c>
       <c r="E143">
         <v>495</v>
       </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <f t="shared" si="22"/>
+        <v>11533.065000000001</v>
+      </c>
+      <c r="O143">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11621.9</v>
       </c>
       <c r="E144">
         <v>495</v>
       </c>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L144" t="s">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="22"/>
+        <v>11613.424999999999</v>
+      </c>
+      <c r="N144">
+        <f t="shared" ref="N144" si="24">M144+28.28</f>
+        <v>11641.705</v>
+      </c>
+      <c r="O144">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11701.9</v>
       </c>
       <c r="E145">
         <v>495</v>
       </c>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <f t="shared" si="22"/>
+        <v>11718.985000000001</v>
+      </c>
+      <c r="O145">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11781.9</v>
       </c>
       <c r="E146">
         <v>495</v>
       </c>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <f t="shared" si="22"/>
+        <v>11788.985000000001</v>
+      </c>
+      <c r="O146">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11861.9</v>
       </c>
       <c r="E147">
         <v>495</v>
       </c>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <f t="shared" si="22"/>
+        <v>11865.705</v>
+      </c>
+      <c r="O147">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>11941.9</v>
       </c>
       <c r="E148">
         <v>495</v>
       </c>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <f t="shared" si="22"/>
+        <v>11945.225</v>
+      </c>
+      <c r="O148">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12021.9</v>
       </c>
       <c r="E149">
         <v>495</v>
       </c>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <f t="shared" si="22"/>
+        <v>12027.545</v>
+      </c>
+      <c r="O149">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12101.9</v>
       </c>
       <c r="E150">
         <v>495</v>
       </c>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <f t="shared" si="22"/>
+        <v>12093.065000000001</v>
+      </c>
+      <c r="O150">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12181.9</v>
       </c>
       <c r="E151">
         <v>495</v>
       </c>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L151" t="s">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="22"/>
+        <v>12173.424999999999</v>
+      </c>
+      <c r="N151">
+        <f t="shared" ref="N151" si="25">M151+28.28</f>
+        <v>12201.705</v>
+      </c>
+      <c r="O151">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12261.9</v>
       </c>
       <c r="E152">
         <v>495</v>
       </c>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <f t="shared" si="22"/>
+        <v>12278.985000000001</v>
+      </c>
+      <c r="O152">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12341.9</v>
       </c>
       <c r="E153">
         <v>495</v>
       </c>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <f t="shared" si="22"/>
+        <v>12348.985000000001</v>
+      </c>
+      <c r="O153">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12421.9</v>
       </c>
       <c r="E154">
         <v>495</v>
       </c>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <f t="shared" si="22"/>
+        <v>12425.705</v>
+      </c>
+      <c r="O154">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12501.9</v>
       </c>
       <c r="E155">
         <v>495</v>
       </c>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <f t="shared" si="22"/>
+        <v>12505.225</v>
+      </c>
+      <c r="O155">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="156" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12581.9</v>
       </c>
       <c r="E156">
         <v>495</v>
       </c>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <f t="shared" si="22"/>
+        <v>12587.545</v>
+      </c>
+      <c r="O156">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12661.9</v>
       </c>
       <c r="E157">
         <v>495</v>
       </c>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <f t="shared" si="22"/>
+        <v>12653.065000000001</v>
+      </c>
+      <c r="O157">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12741.9</v>
       </c>
       <c r="E158">
         <v>495</v>
       </c>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="22"/>
+        <v>12733.424999999999</v>
+      </c>
+      <c r="N158">
+        <f t="shared" ref="N158" si="26">M158+28.28</f>
+        <v>12761.705</v>
+      </c>
+      <c r="O158">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12821.9</v>
       </c>
       <c r="E159">
         <v>495</v>
       </c>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <f t="shared" si="22"/>
+        <v>12838.985000000001</v>
+      </c>
+      <c r="O159">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12901.9</v>
       </c>
       <c r="E160">
         <v>495</v>
       </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <f t="shared" si="22"/>
+        <v>12908.985000000001</v>
+      </c>
+      <c r="O160">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>12981.9</v>
       </c>
       <c r="E161">
         <v>495</v>
       </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <f t="shared" si="22"/>
+        <v>12985.705</v>
+      </c>
+      <c r="O161">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13061.9</v>
       </c>
       <c r="E162">
         <v>495</v>
       </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <f t="shared" si="22"/>
+        <v>13065.225</v>
+      </c>
+      <c r="O162">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13141.9</v>
       </c>
       <c r="E163">
         <v>495</v>
       </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <f t="shared" si="22"/>
+        <v>13147.545</v>
+      </c>
+      <c r="O163">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13221.9</v>
       </c>
       <c r="E164">
         <v>495</v>
       </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <f t="shared" si="22"/>
+        <v>13213.065000000001</v>
+      </c>
+      <c r="O164">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13301.9</v>
       </c>
       <c r="E165">
         <v>495</v>
       </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L165" t="s">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="22"/>
+        <v>13293.424999999999</v>
+      </c>
+      <c r="N165">
+        <f t="shared" ref="N165" si="27">M165+28.28</f>
+        <v>13321.705</v>
+      </c>
+      <c r="O165">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13381.9</v>
       </c>
       <c r="E166">
         <v>495</v>
       </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <f t="shared" si="22"/>
+        <v>13398.985000000001</v>
+      </c>
+      <c r="O166">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13461.9</v>
       </c>
       <c r="E167">
         <v>495</v>
       </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <f t="shared" si="22"/>
+        <v>13468.985000000001</v>
+      </c>
+      <c r="O167">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13541.9</v>
       </c>
       <c r="E168">
         <v>495</v>
       </c>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f t="shared" si="22"/>
+        <v>13545.705</v>
+      </c>
+      <c r="O168">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13621.9</v>
       </c>
       <c r="E169">
         <v>495</v>
       </c>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <f t="shared" si="22"/>
+        <v>13625.225</v>
+      </c>
+      <c r="O169">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13701.9</v>
       </c>
       <c r="E170">
         <v>495</v>
       </c>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <f t="shared" si="22"/>
+        <v>13707.545</v>
+      </c>
+      <c r="O170">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13781.9</v>
       </c>
       <c r="E171">
         <v>495</v>
       </c>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <f t="shared" si="22"/>
+        <v>13773.065000000001</v>
+      </c>
+      <c r="O171">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13861.9</v>
       </c>
       <c r="E172">
         <v>495</v>
       </c>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L172" t="s">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="22"/>
+        <v>13853.424999999999</v>
+      </c>
+      <c r="N172">
+        <f t="shared" ref="N172" si="28">M172+28.28</f>
+        <v>13881.705</v>
+      </c>
+      <c r="O172">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>13941.9</v>
       </c>
       <c r="E173">
         <v>495</v>
       </c>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <f t="shared" si="22"/>
+        <v>13958.985000000001</v>
+      </c>
+      <c r="O173">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14021.9</v>
       </c>
       <c r="E174">
         <v>495</v>
       </c>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <f t="shared" si="22"/>
+        <v>14028.985000000001</v>
+      </c>
+      <c r="O174">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14101.9</v>
       </c>
       <c r="E175">
         <v>495</v>
       </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <f t="shared" si="22"/>
+        <v>14105.705</v>
+      </c>
+      <c r="O175">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14181.9</v>
       </c>
       <c r="E176">
         <v>495</v>
       </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <f t="shared" si="22"/>
+        <v>14185.225</v>
+      </c>
+      <c r="O176">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14261.9</v>
       </c>
       <c r="E177">
         <v>495</v>
       </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <f t="shared" si="22"/>
+        <v>14267.545</v>
+      </c>
+      <c r="O177">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14341.9</v>
       </c>
       <c r="E178">
         <v>495</v>
       </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <f t="shared" si="22"/>
+        <v>14333.065000000001</v>
+      </c>
+      <c r="O178">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14421.9</v>
       </c>
       <c r="E179">
         <v>495</v>
       </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L179" t="s">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="22"/>
+        <v>14413.424999999999</v>
+      </c>
+      <c r="N179">
+        <f t="shared" ref="N179" si="29">M179+28.28</f>
+        <v>14441.705</v>
+      </c>
+      <c r="O179">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14501.9</v>
       </c>
       <c r="E180">
         <v>495</v>
       </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <f t="shared" si="22"/>
+        <v>14518.985000000001</v>
+      </c>
+      <c r="O180">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14581.9</v>
       </c>
       <c r="E181">
         <v>495</v>
       </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <f t="shared" si="22"/>
+        <v>14588.985000000001</v>
+      </c>
+      <c r="O181">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14661.9</v>
       </c>
       <c r="E182">
         <v>495</v>
       </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <f t="shared" si="22"/>
+        <v>14665.705</v>
+      </c>
+      <c r="O182">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14741.9</v>
       </c>
       <c r="E183">
         <v>495</v>
       </c>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <f t="shared" si="22"/>
+        <v>14745.225</v>
+      </c>
+      <c r="O183">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14821.9</v>
       </c>
       <c r="E184">
         <v>495</v>
       </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <f t="shared" si="22"/>
+        <v>14827.545</v>
+      </c>
+      <c r="O184">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14901.9</v>
       </c>
       <c r="E185">
         <v>495</v>
       </c>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <f t="shared" si="22"/>
+        <v>14893.065000000001</v>
+      </c>
+      <c r="O185">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>14981.9</v>
       </c>
       <c r="E186">
         <v>495</v>
       </c>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L186" t="s">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="22"/>
+        <v>14973.424999999999</v>
+      </c>
+      <c r="N186">
+        <f t="shared" ref="N186" si="30">M186+28.28</f>
+        <v>15001.705</v>
+      </c>
+      <c r="O186">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15061.9</v>
       </c>
       <c r="E187">
         <v>495</v>
       </c>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <f t="shared" si="22"/>
+        <v>15078.985000000001</v>
+      </c>
+      <c r="O187">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15141.9</v>
       </c>
       <c r="E188">
         <v>495</v>
       </c>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <f t="shared" si="22"/>
+        <v>15148.985000000001</v>
+      </c>
+      <c r="O188">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="189" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15221.9</v>
       </c>
       <c r="E189">
         <v>495</v>
       </c>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <f t="shared" si="22"/>
+        <v>15225.705</v>
+      </c>
+      <c r="O189">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="190" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15301.9</v>
       </c>
       <c r="E190">
         <v>495</v>
       </c>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <f t="shared" si="22"/>
+        <v>15305.225</v>
+      </c>
+      <c r="O190">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15381.9</v>
       </c>
       <c r="E191">
         <v>495</v>
       </c>
-    </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <f t="shared" si="22"/>
+        <v>15387.545</v>
+      </c>
+      <c r="O191">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15461.9</v>
       </c>
       <c r="E192">
         <v>495</v>
       </c>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <f t="shared" si="22"/>
+        <v>15453.065000000001</v>
+      </c>
+      <c r="O192">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15541.9</v>
       </c>
       <c r="E193">
         <v>495</v>
       </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L193" t="s">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="22"/>
+        <v>15533.424999999999</v>
+      </c>
+      <c r="N193">
+        <f t="shared" ref="N193" si="31">M193+28.28</f>
+        <v>15561.705</v>
+      </c>
+      <c r="O193">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>15621.9</v>
       </c>
       <c r="E194">
         <v>495</v>
       </c>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <f t="shared" si="22"/>
+        <v>15638.985000000001</v>
+      </c>
+      <c r="O194">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="195" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D195">
-        <f t="shared" ref="D195:D224" si="3">D194+80</f>
+        <f t="shared" ref="D195:D224" si="32">D194+80</f>
         <v>15701.9</v>
       </c>
       <c r="E195">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <f t="shared" si="22"/>
+        <v>15708.985000000001</v>
+      </c>
+      <c r="O195">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>15781.9</v>
       </c>
       <c r="E196">
         <v>495</v>
       </c>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <f t="shared" si="22"/>
+        <v>15785.705</v>
+      </c>
+      <c r="O196">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>15861.9</v>
       </c>
       <c r="E197">
         <v>495</v>
       </c>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <f t="shared" si="22"/>
+        <v>15865.225</v>
+      </c>
+      <c r="O197">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>15941.9</v>
       </c>
       <c r="E198">
         <v>495</v>
       </c>
-    </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <f t="shared" si="22"/>
+        <v>15947.545</v>
+      </c>
+      <c r="O198">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16021.9</v>
       </c>
       <c r="E199">
         <v>495</v>
       </c>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <f t="shared" si="22"/>
+        <v>16013.065000000001</v>
+      </c>
+      <c r="O199">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16101.9</v>
       </c>
       <c r="E200">
         <v>495</v>
       </c>
-    </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L200" t="s">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="22"/>
+        <v>16093.424999999999</v>
+      </c>
+      <c r="N200">
+        <f t="shared" ref="N200" si="33">M200+28.28</f>
+        <v>16121.705</v>
+      </c>
+      <c r="O200">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16181.9</v>
       </c>
       <c r="E201">
         <v>495</v>
       </c>
-    </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <f t="shared" ref="M201:M224" si="34">M194+560</f>
+        <v>16198.985000000001</v>
+      </c>
+      <c r="O201">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16261.9</v>
       </c>
       <c r="E202">
         <v>495</v>
       </c>
-    </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <f t="shared" si="34"/>
+        <v>16268.985000000001</v>
+      </c>
+      <c r="O202">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="203" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16341.9</v>
       </c>
       <c r="E203">
         <v>495</v>
       </c>
-    </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <f t="shared" si="34"/>
+        <v>16345.705</v>
+      </c>
+      <c r="O203">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="204" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16421.900000000001</v>
       </c>
       <c r="E204">
         <v>495</v>
       </c>
-    </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <f t="shared" si="34"/>
+        <v>16425.224999999999</v>
+      </c>
+      <c r="O204">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="205" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16501.900000000001</v>
       </c>
       <c r="E205">
         <v>495</v>
       </c>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <f t="shared" si="34"/>
+        <v>16507.544999999998</v>
+      </c>
+      <c r="O205">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="206" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16581.900000000001</v>
       </c>
       <c r="E206">
         <v>495</v>
       </c>
-    </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <f t="shared" si="34"/>
+        <v>16573.065000000002</v>
+      </c>
+      <c r="O206">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="207" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16661.900000000001</v>
       </c>
       <c r="E207">
         <v>495</v>
       </c>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L207" t="s">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="34"/>
+        <v>16653.424999999999</v>
+      </c>
+      <c r="N207">
+        <f t="shared" ref="N207" si="35">M207+28.28</f>
+        <v>16681.704999999998</v>
+      </c>
+      <c r="O207">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="208" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16741.900000000001</v>
       </c>
       <c r="E208">
         <v>495</v>
       </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <f t="shared" si="34"/>
+        <v>16758.985000000001</v>
+      </c>
+      <c r="O208">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16821.900000000001</v>
       </c>
       <c r="E209">
         <v>495</v>
       </c>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <f t="shared" si="34"/>
+        <v>16828.985000000001</v>
+      </c>
+      <c r="O209">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="210" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16901.900000000001</v>
       </c>
       <c r="E210">
         <v>495</v>
       </c>
-    </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <f t="shared" si="34"/>
+        <v>16905.705000000002</v>
+      </c>
+      <c r="O210">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>16981.900000000001</v>
       </c>
       <c r="E211">
         <v>495</v>
       </c>
-    </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <f t="shared" si="34"/>
+        <v>16985.224999999999</v>
+      </c>
+      <c r="O211">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17061.900000000001</v>
       </c>
       <c r="E212">
         <v>495</v>
       </c>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <f t="shared" si="34"/>
+        <v>17067.544999999998</v>
+      </c>
+      <c r="O212">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17141.900000000001</v>
       </c>
       <c r="E213">
         <v>495</v>
       </c>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <f t="shared" si="34"/>
+        <v>17133.065000000002</v>
+      </c>
+      <c r="O213">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="214" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17221.900000000001</v>
       </c>
       <c r="E214">
         <v>495</v>
       </c>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L214" t="s">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="34"/>
+        <v>17213.424999999999</v>
+      </c>
+      <c r="N214">
+        <f t="shared" ref="N214" si="36">M214+28.28</f>
+        <v>17241.704999999998</v>
+      </c>
+      <c r="O214">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17301.900000000001</v>
       </c>
       <c r="E215">
         <v>495</v>
       </c>
-    </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <f t="shared" si="34"/>
+        <v>17318.985000000001</v>
+      </c>
+      <c r="O215">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17381.900000000001</v>
       </c>
       <c r="E216">
         <v>495</v>
       </c>
-    </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <f t="shared" si="34"/>
+        <v>17388.985000000001</v>
+      </c>
+      <c r="O216">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="217" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17461.900000000001</v>
       </c>
       <c r="E217">
         <v>495</v>
       </c>
-    </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <f t="shared" si="34"/>
+        <v>17465.705000000002</v>
+      </c>
+      <c r="O217">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="218" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17541.900000000001</v>
       </c>
       <c r="E218">
         <v>495</v>
       </c>
-    </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <f t="shared" si="34"/>
+        <v>17545.224999999999</v>
+      </c>
+      <c r="O218">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="219" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17621.900000000001</v>
       </c>
       <c r="E219">
         <v>495</v>
       </c>
-    </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <f t="shared" si="34"/>
+        <v>17627.544999999998</v>
+      </c>
+      <c r="O219">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="220" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17701.900000000001</v>
       </c>
       <c r="E220">
         <v>495</v>
       </c>
-    </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <f t="shared" si="34"/>
+        <v>17693.065000000002</v>
+      </c>
+      <c r="O220">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17781.900000000001</v>
       </c>
       <c r="E221">
         <v>495</v>
       </c>
-    </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="L221" t="s">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="34"/>
+        <v>17773.424999999999</v>
+      </c>
+      <c r="N221">
+        <f t="shared" ref="N221" si="37">M221+28.28</f>
+        <v>17801.704999999998</v>
+      </c>
+      <c r="O221">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17861.900000000001</v>
       </c>
       <c r="E222">
         <v>495</v>
       </c>
-    </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <f t="shared" si="34"/>
+        <v>17878.985000000001</v>
+      </c>
+      <c r="O222">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>17941.900000000001</v>
       </c>
       <c r="E223">
         <v>495</v>
       </c>
-    </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <f t="shared" si="34"/>
+        <v>17948.985000000001</v>
+      </c>
+      <c r="O223">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="224" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="32"/>
         <v>18021.900000000001</v>
       </c>
       <c r="E224">
+        <v>495</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="34"/>
+        <v>18025.705000000002</v>
+      </c>
+      <c r="O224">
         <v>495</v>
       </c>
     </row>
